--- a/500all/speech_level/speeches_CHRG-114hhrg25508.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25508.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order.    Without objection, the chair is authorized to declare a recess at any time.    We have an important hearing today. The public comes in regular contact with the Transportation Security Administration. We have a fairly new administrator who I have had a chance to visit with, but it is important as the Oversight Committee that we continue to take a look at what is happening or not happening at the TSA.    So today, we are going to have our second hearing examining the management practices and misconduct that we have heard about and seen about and investigated at the Transportation Security Administration.    And this time of year the traveling public picks up kids and families, and people are traveling sometimes at record levels. People get frustrated. They go to airports, there are long lines, there is frustration, but at the same time we have to find a balance to make sure that those airplanes are properly secure because the enemy, terrorists and whatnot, they only need to get by once. And they deal with millions of passengers on a weekly basis at the TSA.    We have a lot of good men and women who serve on the frontlines who are trying to do the best job that they can and dealing with a frustrated public sometimes it is hot and they are sweaty and they are late, and there are a lot of issues to deal with.    Last summer, the Department of Homeland Security inspector general performed a covert testing of TSA's airport security screening and found ``failures in the technology, failures in TSA procedures, and human error.'' There were very alarming rates of success for penetration beyond the lines in being able to bring something nefarious onto an airplane.    Although some of the inspector general's recommendations are still outstanding in the wake of the testing, the TSA claims they are making progress and training its employees to be more thorough in resolving these security concerns, yet the progress may be undermined if TSA employees continue to quit at their current rates. The agency loses around 103 screeners each week through attrition. As the administrator has told me, a lot of these are part-time employees. But nevertheless, it is very expensive to get somebody trained up and bring on to only have them leave later on in the process.    In the year 2014 the agency hired 373 people but had 4,654 departures. You can see where--if you think of it as a bathtub, if you are pouring water into it but the drain is going out faster than you can keep people in that tub, that there gets to be a problem.    We are very concerned about the morale at the Transportation Security Administration, the TSA. The government does do, I think, a good thing. It goes out and ranks and does surveys and comes up with a scientific way to assess the various agencies. Of the 320 agencies, the TSA ranked 313th. This is an alarming trend throughout Homeland Security, not just the TSA. There are a number of these agencies, including the Secret Service and others, that are near the very, very bottom of agencies that are ranked.    It is something that has to be assessed. And there are probably reasons for this, and we want to understand that. We have a duty and obligation to the Federal employees, and you worry that people in a security type of situation with low morale, you don't necessarily get the best security and the best product out of that.    Two weeks ago, one of our witnesses testified that he believed ``while the new administrator of the TSA has made security a much-needed priority, once again, we remain an agency in crisis.'' He attributed poor leadership and oversight of senior leadership appointments in the last several years as major contributing factors. In testimony before this committee he alleged a double standard within the TSA. We have heard senior leaders in the agency are treated with far more leniency than the TSA's rank-and-file employees.    Now, we have one situation. I don't know this man; I don't believe I have ever met him. If I did, I again don't remember it. But he is a very senior person. As the assistant administrator of the Office of Security Operations, there is a gentleman, his name is Kelly Hoggan. He receives a base compensation of $181,500, a very healthy salary. Since his promotion to that position in 2013, security operations at TSA have been abysmal.    Again, the inspector general I think we will hear testify today the penetration tests that were done previously were nothing close to successful. They were successful in getting objects and items through security, but they were, from a security standpoint, absolutely rock bottom in terms of their performance.    Yet during this time, in September 2014, the inspector general found that despite spending $551 million on new equipment and training, the TSA had not improved its checked baggage screening at all since the IG report found vulnerabilities in 2009.    Last summer, covert testing by the inspector general revealed an alarming high-rate failure rate that was widely reported by the media. Yet whistleblowers reported that instead of being held accountable for those failures, Mr. Hoggan received an amazing amount of bonuses beginning in 2015.    I want to show you a slide here.    [Slide.]</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Well, thank you, Mr. Chairman and ranking member, for conducting this part II. There are some very serious concerns about performance of TSA, the first hearing that you held just a few weeks ago. We had, for the first time since we created TSA, people who came in from responsible positions and were willing to testify to the almost sheer chaos that exists both in the management and also the operations.    Of course, I expressed my concern about the meltdown that we have had to date, and I had prepared actually yesterday--and staff had gotten me like one figure during the break. We had 6,800 American Airlines passengers miss their flights due to checkpoint delays, and that is sort of--you know, we hear that, Members of Congress and others. Well, last night, I had the night from hell. I had three people who I invited to Washington who came to Washington, spent most of the day with me. All of them missed their flights standing in a TSA line. I tell you what. I am so livid.    And Wednesday night is a particularly bad night. Now, traffic was bad. They were late getting there. The TSA people wouldn't have the courtesy to accommodate people who could have caught their flight even though they were somewhat late. The plane was there. I was on the phone for hours. One of the individuals whose family is leaving on vacation today had to get back to Orlando to accompany his family. I actually had a staffer drive him and bought him a ticket home last night. So I could put a face on it.    And you can't get a hold of a damn person in TSA even as a Member of Congress, nor would they take your calls. I tell you what, it is just unbelievable, the operation. And you have got your $100,000 people standing around accommodating Members of Congress to get them on a plane and you can't get a passenger on a plane who has to get home to leave with his family.    I want a list of all of those people standing around that chauffer Members of Congress and VIPs up to the front of line, and you can't get three people, one lady with some physical disabilities. I tell you what. I am so disgusted with this. It makes you, Mr. Chairman, lose your focus.    But let me go back to you can delay these people and then here is my GAO report, ``17 known terrorists have flown on 24 different occasions'' passing through your TSA. What was the very most troubling of the testimony that I heard--and you can fail and you will fail and your attempts on the training and recruiting and all that will be a failure, I can tell you that. Now, I told you that on my sofa when you came in because you cannot recruit, you cannot train, you cannot retain, and you cannot administer. It is just a huge failing government program, and it will fail.    But the most troubling thing was the testimony from Mark Livingston, former assistant administrator for TSA's Office of Intelligence and Analysis who testified, ``It is my testimony today that we have non-intel professionals running our Office of Intelligence and Analysis.'' That is the core of the government responsibility, connecting the dots. And he is telling us--and I questioned him about what was going on, and he is saying that that important government function, the most important government function, to find the bad guys, not stop the innocent 99 percent of the travelers, that we have chaos in that operation.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman.    There have been few times in my 20 years on this committee that I have felt so strongly about an individual. Administrator Neffenger is a person who I have a phenomenal amount of respect for. When I was the chairman of the Subcommittee on the Coast Guard and Maritime Matters, it was Mr. Neffenger, Admiral Neffenger, who cleaned up a mess called Deepwater Horizon where the Coast Guard was buying ships that didn't float, rid our systems that were supposed to have surveillance of 360 degree with 180 degrees, radios that when they got wet, they didn't work. He cleaned up the mess and saved this country and the Coast Guard probably hundreds of millions of dollars. And, sir, no matter what happens in this hearing, I thank you. I really do.    Last month, our committee heard testimony from three Transportation Security Administration employees. They raised troubling allegations about personnel practices that stretched back several years in some cases. The employees who came forward deserve to have their allegations thoroughly and fairly investigated. And I emphasize that. It is one thing to allege, but we need all the facts so that we can be about the business of not only hearing testimony but bringing about the reform that is necessary. And I am sure you would agree with that, Mr. Roth.    Unfortunately, the committee has not yet had the opportunity to fully examine or substantiate their claims. And let me pause here for a moment.    Mr. Roth, in your testimony, I want you to do me a big favor and I want you to do a big favor for this committee. I want you to distinguish between what happened pre-Neffenger, Admiral Neffenger, and post-. The chairmen spent, and rightfully so, a good amount of time talking about the $90,000 bonus. There is probably nobody in this Congress who has railed against bonuses going all the way back to AIG than I have. And so I want to make sure that we are putting responsibility where responsibility belongs. I hope you will do that.    Nevertheless, during our previous hearing, I was struck by how highly those whistleblowers speak about our witness today, Vice Admiral Peter Neffenger, the administrator of TSA. Despite their understandable frustration about what they endured, these whistleblowers repeatedly told the committee that Administrator Neffenger was taking positive steps at TSA. They made clear that he is setting a course for the agency that puts the top priority exactly where it should be, on security.    For example, Mark Livingston, a program manager in the Office of the Chief Risk Officer, testified that Administrator Neffenger is ``a man of integrity.'' He also said, ``TSA is not going to compromise our mission to expedite passengers at the expense of our mission.'' He went on to say, ``What we are going to do is we are going to get better, we are going to keep pushing pre-check, we are going to keep pushing a better process, we are going to get more people and we are going to get better at this. Mr. Neffenger has made it his priority.''    Similarly, Jay Brainard, a Federal security director in the Office of Security Operations in Kansas, testified, and I quote--now, these are whistleblowers. ``Certainly, since Mr. Neffenger has been in, there has been a shift to security and trying to get that pendulum to go back so we strike a balance.''    Mr. Brainard also said, ``It is important for us to make sure that we reassure our officers so that, regardless of the fact, that somebody is going to have to wait a few extra minutes, we still have their back. And we have an administrator who fully supports that, and that is part of the culture that he has established with TSA. That is a very difficult job. It is certainly not the most popular job, and we certainly appreciate it.''    I have to say that during my many years here on the Oversight Committee, I have rarely seen employees simultaneously come forward to report what they believe to be abuses while at the same time commending an individual who is in charge of the agency for his efforts to address them so vigorously. I can never remember that in these 20 years, and I have been at just about every minute of all the hearings.    Admiral and Administrator Neffenger testified last November that TSA faces ``a critical turning point.'' And I agree. He cannot turn around this agency on a dime. I wish he could. I don't think anybody up here could. But in the 10 months he has been on the job, and I emphasize 10 months, he has taken bold action to address the challenges he inherited.    For example, in February, he halted all directed reassignments currently in process. If you remember the committee when a lot of the complaints were about people who felt that they were being punished and being retaliated against by being moved from place to place. The wife would be sent to the Northeast and the husband be sent to the Southwest and all kinds of mischief. And so I am glad you addressed that, and I hope that you will talk about that a bit today because it was a large part of our hearing.    In March, he issued a memo that requires new reviews and approvals whenever a directed reassignment is requested. He strengthened TSA's controls over special achievement awards, more transparency to the Executive Resources Council, and appointed a chief operating officer to oversee the assistant administrators in charge of agency's operating divisions. Critically, he has worked diligently to address the security shortcomings identified by Inspector General Roth, who is also with us today. And I truly have a tremendous amount of respect for you, Mr. Roth.    He retrained all screening personnel, including managers, and created a new academy to train newly hired screeners. As Inspector General Roth testified last November, ``He has deactivated certain risk assessment rules that granted expedited screening through pre-check lanes.''    However, despite all of these positive changes, the number of screeners has dropped by nearly 6,000 over the past 4 years. And I agree with the chairman. That is something that we all should be concerned about. We all need to get to the bottom line of why that is happening. We want to retain our folks. And I am hoping that it is not a situation that the chairman and I found with the Secret Service where people had gotten to a point because they did the same job over and over and over again. I at least concluded that they had moved into a culture of complacency, and sadly, mediocrity.    Of course, the TSA has to do its job, but Congress has to do ours as well. Congress wants to ensure that this agency has the resources it needs to accomplish the security mission, and I want you to let us know whether you do have the resources, including rightsizing the number of screeners. I look forward to hearing from Administrator Neffenger about what more he needs to continue the improvements he has put in motion. And I anxiously look forward to hearing from Mr. Roth about the work he is undertaking to assess these changes.    I do believe that we are well on our way to making the TSA a better organization, and if it is a morale question, I would like for you to address that forthrightly, Mr. Neffenger, Admiral Neffenger, and let us know what you plan to do about that.    With that, Mr. Chairman, I want to thank you, and I yield back.</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Neffenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neffenger. Thank you. Good morning, Chairman Chaffetz, Ranking Member Cummings, and distinguished members of the committee. Thank you for the opportunity to appear before you today. I sincerely appreciate the committee's oversight of the management practices at TSA. This issue has been of great concern to me as well. I commit to you and the American people that, under my leadership, TSA has established high standards of performance and accountability.    I also want to thank Inspector General Roth for his support. I greatly value the oversight that his office provides to improve our agency, and I have been working closely with him during my tenure.    My leadership perspective is shaped by more than three decades of national service in crisis leadership. Throughout my career, I have emphasized professional integrity and duty to mission as foundational elements of service for myself and for the dedicated civil servants and military members I have been entrusted to lead.    Since taking the oath of office on July 4 of last year, I have traveled throughout the country and around the world to meet with employees at all levels of our agency. I have been impressed by their patriotism and their sense of duty. These are servants who every day perform demanding tasks under difficult circumstances, and I deeply respect and appreciate their work. They have risen to the challenge of service to a mission and have taken an oath of office and loyalty as a condition of employment. Their success requires the utmost professionalism from all of our employees from frontline officers to the most senior leaders.    My overarching priority is to fulfill the core mission of TSA to secure the Nation's transportation systems. In just 10 months we have undertaken a range of transformational efforts. I immediately prioritized our counterterrorism mission. I set a renewed focus on security, revised alarm resolution procedures, made investments in new technology, and retrained the entire workforce.    We are holding ourselves accountable to high standards of performance and are supporting our frontline officers in their critical counterterrorism mission. We have reinvigorated our partnerships with the airlines, airport operators, and the trade and travel industries and are working closely with Congress to address our security mission.    We simultaneously undertook a broad evolution of the entire TSA enterprise with respect to that mission and our people. I am systematically and deliberately leading this transformation, and I have made it clear that we are focused on our security mission.    Most importantly, I am investing in our people. With Congress's help, I directed a complete overhaul of our approach to how we train our workforce at all levels of the agency. We establish the first-ever TSA Academy on January 1 of this year. This intensive training will enable us to achieve consistency, develop a common culture, instill core values, and raise performance across the entire workforce. Establishing a culture of mutual respect and trust between leaders in the workforce instills confidence and pride and is a prudent investment in the future of the agency.    I also ordered a review of all personnel policies and practices. This led to a number of significant changes, among which are elimination of the arbitrary use of directed reassignments, restrictions on permanent change of station relocation costs, and significant controls on bonuses at all levels.    We are overhauling management practices. I've conducted an independent review of our acquisition programs. We're building a planning, programming, budgeting, and execution process, and we're building a human capital management system to address recruitment, development, promotion, assignment, and retention.    And to ensure the effective integration of our leadership team, I have brought in new leaders from outside the agency, a new deputy administrator, new chief of staff, a chief of operations, a new head of intelligence, and other key positions. And with respect to intelligence, I want to note that our intelligence office just received a very prestigious award from the National Counterterrorism Center for the work that they have done to analyze recent attacks on the aviation system.    I assure this committee that under my leadership TSA treats its employees fairly and affords them every legal and available means to exercise their due process rights. We review management controls regularly, revise them when needed, and fully investigate and adjudicate misconduct at every level, and I hold those who violate standards appropriately accountable.    With respect to leadership, my experience tells me that good leaders set high standards and inspire people to perform at their best. I have demanded much of my leaders over the past 10 months. I have set high standards for them. I expect them to work hard, and I supervise them closely.    Finally, we must deliver a highly effective intelligence-driven counterterrorism and security capability every day. To do so, we must have fully trained, highly motivated, professional employees supported by a mature and efficient agency with a common set of values. My guiding principles, which I expressed in my administrator's intent, are focused on mission, invest in people, and commit to excellence.    We are pursuing these objectives every day. As administrator, I will continue to do so until we achieve and sustain success in every aspect of this agency, in every mission, in every office and location where we operate, and with every single employee.    Thank you for the opportunity to appear before you today and for the committee's support of TSA's mission. I look forward to your questions.</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you, Mr. Chairman, for calling this important hearing. Nothing is more important than securing the lives of American people.    And I want to thank Admiral Neffenger and IG Roth for your work to really make the TSA security system more effective.    I would like to remind my colleagues that TSA was built not for speed or created by government but to protect our citizens. Almost 3,000 people just in New York City alone were murdered on 9/11 merely because they woke up and did what each one of us are doing today in this room. They went to work, sat at their desks, and they were murdered not on a military site but at their worksite. And this happened at other sites around the country.    And if you remember--I would go to the airport just to see what was going on. It was closed down. No one would fly. Our commerce was crumbling; our air system was totally dead. Everything was dead until government came in and started putting security measures in place to protect the American people.    Five hundred of my constituents died on 9/11 and hundreds of friends and acquaintances of mine merely because they were Americans going to work. This is horrifying. And we know that our airlines continue to be a terrorist target. We know. I talked to the pilots. They tell me they continue to test the system all the time to see if there are weaknesses. And they find that often after they leave the plane and see where they were meddling.    So I want to thank both of you for your focus on security.    I would also like to remind my colleagues that when we created TSA it was hotly debated for months. There was a division between both sides of the aisle. Some thought it should be privatized. Others thought the government should have this responsibility since our main responsibility is to protect our citizens. If our police and our fire are maintained and supported by the government, surely the TSA that plays a vital role of making sure that America doesn't get on a plane that is going to blow up should have that same type of support from the Federal Government.    So I want to thank Mr. Neffenger for your statements before this committee where you--and I am going to quote you because I thought it was such a good line. You said you are ``readjusting the measurements of success to focus on security rather than speed.''    And I will say to you I don't see TSA pandering to any passengers. I get stopped all the time. Sometimes I say why am I being stopped? They said it is a random number. You are that random number. Sometimes the bells go off. But like every other American, I have not seen anyone protest the fact that they were stopped. They realize that they are there to help make it more secure for us.    And I study the lines, like all of us. I travel every week back and forth. And we have long lines. TSA has really helped. The pre-check, sometimes the pre-check line is longer than the other lines. The pre-check line is really growing, as you said.    But I have studied my fellow residents, and I don't see them angry. If they lose their flight, miss their flight, they should have been there earlier. We are all supposed to be there an hour earlier. We rarely are there an hour earlier. And they are not upset. They realize that they are stopping people to make sure they don't get killed when they get on that plane.    So I for one just want to support the oversight strength of our nation. The IG's office came out saying it wasn't strong enough for security. The admiral has responded. He has 10 points that he is implementing. And I just want to ask Admiral Neffenger, what adjustments have you made to ensure that screeners are assessed on the security results that they achieve?    And I want to reiterate I have never, never since 9/11--it has been 15 years. I have never seen a resident or foreigner, whoever is in that line, object that they are being stopped or that someone else is being stopped, and because of their feeling that there is an emergency, they may miss their plane. The one complaint I hear is it secure enough? What is the oversight? Every now and then someone gets on a plane with a knife or some weapon and it gets all over the papers and people start calling my office how did this happen? Because if people do not believe that their planes are secure, they are not going to fly. Commerce is going to hurt, the country hurts. And fear is terrible and undermining the American spirit to get things done.    So I really want to know what are you doing to improve security? If you need more people, let us know and give us a report on how you can keep the security at the top level but you may have to have more people. I just know in New York it is a busy place, but oftentimes, there are only one or two lanes open because they don't have the people to staff the other lanes. But no one is complaining about a pressure on security. You know, I want to thank you for the job you do.</t>
   </si>
   <si>
@@ -211,9 +196,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman.    Admiral Neffenger, can you tell me how many TSA employees make $100,000 or more a year?</t>
   </si>
   <si>
@@ -289,9 +271,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair.    Administrator Neffenger, you have talked about the idea that more and more people are traveling and that TSA needs more workers. I wanted to concentrate a little bit more on pre-check. How many passengers are currently enrolled in pre-check?</t>
   </si>
   <si>
@@ -337,9 +316,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gosar. Thank you, Chairman.    Mr. Neffenger, TSA employees report that directed reassignments have been used improperly to force out disfavored employees. Do you believe this is an ongoing practice at TSA?</t>
   </si>
   <si>
@@ -445,9 +421,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman. I will be brief, and then I will yield the remainder of my time to the gentleman from Florida.    Mr. Chairman, I think we are probably all prisoners to a certain extent to our own personal experience, so while I am open and interested of the experiences and expectations of others, I have never had a problem in any of the airports I have ever traveled to. I use Greenville-Spartanburg, I use Charlotte, I use DCA. The folks are professional.    My friend from Florida mentioned that there may be some Members of Congress and perhaps other people who consider themselves to be dignitaries who either expect or accept preferential treatment. The Members of Congress that I travel with don't expect it, and they wouldn't accept it if it were offered to them. And a Member of Congress has a little bit of obligation herself or himself to say no, I am going to stay in the line like everybody else.    So I am quite certain that your department can do better. I am quite certain that you have a plan to do better. I am also quite certain Congress can do better. So I am going to focus on fixing us, and I trust that you have a plan to fix TSA. And my experience with them is you have a really hard job with the zero margin for error. That is not much margin.    So with that, I would yield to the gentleman from Florida.</t>
   </si>
   <si>
@@ -472,9 +445,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Would my friend from Florida just yield for one second?</t>
   </si>
   <si>
@@ -499,9 +469,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And thank you, Admiral. Thank you, Inspector General. Good to see you again.    You realize this is an equal opportunity committee, so when we criticize you today about having long lines and taking too long to screen people, next week if there is a breach, we will haul you appear again and lambaste you for, you know, not be more thorough. So we have that flexibility up here and you do not.    But I think, based on what I have seen and, you know, I have been a critic at times, based on what I have seen, Admiral, the work that you are doing and, Inspector General, you continue to do, I think we are going in the right direction, but we have got a lot of work to do.    The question we had at a previous hearing was regarding--let me ask you up front. We seem to rely a lot on the whistleblower, and I am wondering in the Aviation and Transportation Security Act, it says that employees may be hired and fired, you know, basically on the will of the management at TSA, any other law in existence notwithstanding.    So, as I understand that, they do not have the protection under title 7 of the Civil Rights Act. They do not have protection under antidiscrimination law by the language in the law that says notwithstanding any other law to the contrary they could be fired. And do you want to speak to that, Admiral?</t>
   </si>
   <si>
@@ -550,7 +517,7 @@
     <t xml:space="preserve">    Mr. Neffenger.--correct things through that.    Mr. Lynch. Mr. Roth, you did a great job on the screening tests at the big airports, and, you know, we had a very high failure rate the last time you did that test. And I am not sure if enough time has gone by to allow Admiral Neffenger to sort of adopt a new protocol among the screeners, and has that happened yet? Have you done any new test to sort of take a measurement of how we are doing?</t>
   </si>
   <si>
-    <t>Roth</t>
+    <t>412661</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Roth. Sure. What we have done is two things. One is the natural follow-up that we would do in any audit. So, for example, with regard to the penetration testing, we have reviewed TSA's 22-point plan to increase security at the checkpoint. Additionally, we are planning more covert testing the summer of a similar scale that we did last summer so we'll be able to tell exactly how we're doing.</t>
@@ -565,9 +532,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    I have been amazed to know how much money has actually been spent in some of these previous relocations, reassignments nearing $200,000 per relocation. Have you directed any of these reassignments during your tenure?</t>
   </si>
   <si>
@@ -658,9 +622,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Thank you. I now recognize the gentleman from Virginia, Mr. Connelly, for 5 minutes.</t>
   </si>
   <si>
-    <t>Connelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connelly. Thank you very much. And welcome, both of you.    Admiral Neffenger, let me start by saying I really appreciate the management reforms you have undertaken and the spirit with which you have taken them. This is a big enterprise, a difficult enterprise, a critical mission with a lot of unsatisfying aspects to the job. Very few human beings are going to make a 30-year career out of telling people to take off their belts and shoes, and yet it is critical to the mission, the security of the American people.    And so it not easy keeping motivated to have a salary structure that makes sense, and I for one very much appreciate what you have done, and I hope you don't leave with the new administration. And as a matter of fact, if you do, I hope you will give Paul Wiedefeld a call at Metro and join his team because we need the kind of management reforms you have undertaken at TSA.    One little plug that I always make, and I have seen in my own experience a big change, which I appreciate, in how we are treating the public, but we have still got work to do. But I have really been impressed at different airports I have gone to where--and I just think when you create a more hospitable, friendly climate that invites people's cooperation, you get it.    And there is always a risk if you get a hostile public or a resentful public that something can go wrong. Why not go the former if you can? And I just thank you for that, and I hope you will keep that sense of that culture present. We are not dealing with cattle. We are dealing with people, and we need their cooperation and we want them to feel good about the experience as much as they can.    And I think we do have a long-suffering public that gets it about the security mission and is willing to put up with a lot more than I would have guessed, but we should make it as easy as possible without compromising security, and I think that ought to be the ethos. And so I commend the two of you, and I thank you for the progress that has been achieved.    Let me first ask, by having said all of that, I think there is a growing concern as a management challenge what is happening in terms of wait times. So, for example, 600 passengers missed their flights in Charlotte, North Carolina, on Good Friday because of wait times that exceeded 3 hours. Now, Mrs. Maloney said she doesn't know anyone who complains. My guess is they were 600 people that day on Good Friday in Charlotte who did.    It is one thing to understand I am going to be discommoded and inconvenienced to get through a security line to protect me and everybody else. It is quite another that the price of that is it is moving so sluggishly and glacially I am going to miss my flight.    American Airlines says 7,000 of its customers missed flights in March alone, the month of March, due to long waits and security lines. Seattle and Atlanta have indicated they actually may seek authority to try to privatize passenger screening to expedite this process. Could you address that? Because I think we have to agree that is not acceptable. It may happen, but if that becomes routine, that just doesn't--now, we are going to get real public resistance.</t>
   </si>
   <si>
@@ -706,9 +667,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    I think we have got a very great facility for the Federal Law Enforcement Training Center. I think the TSA frankly is not utilizing it to the full potential, certainly not to the potential that would be helpful. But how long on an average does a new hire have to wait before they begin training at the TSA Academy?</t>
   </si>
   <si>
@@ -856,9 +814,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman, and thank both of you for being here.    You know, we all agree that security must be the top priority, and there is no disagreement about that.    Mr. Roth, when you testified here in November, you were critical of certain programs that granted passengers access to expedited screening lanes when they had not undergone risk assessments. You also commended Administrator Neffenger. You said he ``deactivated certain risk assessment rules that granted expedited screening through pre-check lanes.'' Is that correct?</t>
   </si>
   <si>
@@ -910,9 +865,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman, and thank you, Admiral and Mr. Roth, for being here. I appreciate it very much.    Admiral, let me ask you. Would you agree that having expert and standardized training for TSA screeners like we have at FLETC, the Federal Law Enforcement Training Center in Glencoe, Georgia, that that is very important to make sure that we have personnel that is fully prepared to keep our airports safe?</t>
   </si>
   <si>
@@ -988,9 +940,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Mr. Chair.    I would like to examine the hiring and the role of human resources at TSA in more detail. In 2008 during the Bush administration, TSA awarded a $1.2 billion human capital service contract to Lockheed Martin. Under this contract, known as HRAccess, Lockheed administered the agency's process for recruiting and hiring and is also responsible for personnel and payroll processing services such as position classification. Administrator, is that correct?</t>
   </si>
   <si>
@@ -1051,9 +1000,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    Inspector General Roth, I want to go on record to not only thank you but your entire team for your service. I have great admiration for your role and the roles of your colleagues across the Federal workforce.    But I have a top-five list, and I would say you and your team are in my top-five list for not only doing insightful work but thorough work, actionable work, and follow-up work that provides a real tool for Members of Congress. And so I want to make sure that the record reflects that.</t>
   </si>
   <si>
@@ -1207,9 +1153,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    I share my colleague's concerns obviously about whistleblowers. I think while everyone who has the mantle of responsibility certainly wants to do right with their organization, when we do see individuals that have the courage to come forth, they have to be protected. I think that is the bipartisan motivation of everyone on our committee today.    I want to take questions more on the security end and take it in a little bit different direction, however. Inspector General Roth, I, too, share my colleague's, you know, opinion of the confidence of your office and your personal diligence. The record has just been outstanding. But my question today deals with Vapor Wake dog teams in terms of security. And you will see why here in a moment. Did the IG in the reports make any recommendations on Vapor Wake dog teams and how they should be deployed or how they should be used at different airports?</t>
   </si>
   <si>
@@ -1243,9 +1186,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Well, I am the guy you have been waiting on, the last one.    Mr. Neffenger, how many different assistant administrators have led the Office of Intelligence and Analysis since TSA was created?</t>
   </si>
   <si>
@@ -1538,12 +1478,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. All right. I have far exceeded my time.    Let's recognize the gentleman from Wisconsin, Mr. Grothman, for 5 minutes.</t>
-  </si>
-  <si>
-    <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you.    In the past, the committee heard numerous accounts of line staff being punished for minor infractions while high-level managers went unpunished for significant abuses. Is there a double standard if a TSO employee can be fired for picking up a pen during integrity tests but senior officials who retaliate against their subordinates or engaged in serious misconduct such as lying to the police about a DUI are allowed to keep their job?</t>
@@ -2050,11 +1984,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2076,11 +2008,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2102,11 +2032,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2128,11 +2056,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2154,11 +2080,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2178,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2206,11 +2128,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2230,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2258,11 +2176,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2284,11 +2200,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2308,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2336,11 +2248,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2362,11 +2272,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2386,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2412,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2438,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2464,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2490,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2516,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2542,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2568,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2594,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2620,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2646,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2672,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2698,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2724,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2750,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2776,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2802,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2828,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2854,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2880,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2906,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2932,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2960,11 +2824,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2984,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3012,11 +2872,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3036,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3064,11 +2920,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3088,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3114,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s">
-        <v>56</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3142,11 +2992,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3166,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3192,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3218,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3244,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3270,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3296,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3322,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3348,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3374,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3400,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3426,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3452,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3478,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3504,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3530,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3556,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3582,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3608,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3634,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3660,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3686,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3712,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3738,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3766,11 +3568,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3790,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3816,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3842,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3868,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3894,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3920,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3946,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
         <v>91</v>
-      </c>
-      <c r="H75" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3972,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3998,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4024,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4050,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4076,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4102,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4130,11 +3904,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4154,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
-      </c>
-      <c r="G83" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4180,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4206,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
-      </c>
-      <c r="G85" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4232,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4258,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
-      </c>
-      <c r="G87" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4284,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4310,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>106</v>
-      </c>
-      <c r="G89" t="s">
-        <v>107</v>
-      </c>
-      <c r="H89" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4336,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4362,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4388,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4414,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4440,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4466,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4492,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4518,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4544,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4570,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4596,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4622,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4648,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4674,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4700,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>106</v>
-      </c>
-      <c r="G104" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4726,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4752,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>106</v>
-      </c>
-      <c r="G106" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4780,11 +4504,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4804,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4830,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4856,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4882,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4908,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4934,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4960,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4986,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5014,11 +4720,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5038,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>142</v>
-      </c>
-      <c r="G117" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5064,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5090,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5116,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5142,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5168,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5196,11 +4888,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5220,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>151</v>
-      </c>
-      <c r="G124" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5248,11 +4936,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5272,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5298,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>151</v>
-      </c>
-      <c r="G127" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5324,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>151</v>
-      </c>
-      <c r="G128" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5350,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5378,11 +5056,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5402,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>160</v>
-      </c>
-      <c r="G131" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5428,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5454,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
-      </c>
-      <c r="G133" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5480,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5506,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>160</v>
-      </c>
-      <c r="G135" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5532,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5558,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>160</v>
-      </c>
-      <c r="G137" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5584,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5610,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>160</v>
-      </c>
-      <c r="G139" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5636,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5662,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>160</v>
-      </c>
-      <c r="G141" t="s">
+        <v>150</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
         <v>161</v>
-      </c>
-      <c r="H141" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5688,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G142" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5714,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>27</v>
-      </c>
-      <c r="G143" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5740,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>160</v>
-      </c>
-      <c r="G144" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5766,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>160</v>
-      </c>
-      <c r="G145" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5792,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>160</v>
-      </c>
-      <c r="G146" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5818,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>27</v>
-      </c>
-      <c r="G147" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5844,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>160</v>
-      </c>
-      <c r="G148" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5872,11 +5512,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5896,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>182</v>
-      </c>
-      <c r="G150" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5922,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5948,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>182</v>
-      </c>
-      <c r="G152" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5974,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>27</v>
-      </c>
-      <c r="G153" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6000,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>182</v>
-      </c>
-      <c r="G154" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6026,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>27</v>
-      </c>
-      <c r="G155" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6052,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>182</v>
-      </c>
-      <c r="G156" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6078,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>27</v>
-      </c>
-      <c r="G157" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6104,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>182</v>
-      </c>
-      <c r="G158" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6130,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>27</v>
-      </c>
-      <c r="G159" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6156,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
+        <v>171</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
         <v>182</v>
-      </c>
-      <c r="G160" t="s">
-        <v>183</v>
-      </c>
-      <c r="H160" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6182,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>27</v>
-      </c>
-      <c r="G161" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6208,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>182</v>
-      </c>
-      <c r="G162" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6234,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>27</v>
-      </c>
-      <c r="G163" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6260,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>182</v>
-      </c>
-      <c r="G164" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6286,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>27</v>
-      </c>
-      <c r="G165" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6312,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>182</v>
-      </c>
-      <c r="G166" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6338,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>27</v>
-      </c>
-      <c r="G167" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6364,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>182</v>
-      </c>
-      <c r="G168" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6390,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>27</v>
-      </c>
-      <c r="G169" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6416,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>182</v>
-      </c>
-      <c r="G170" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6442,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>27</v>
-      </c>
-      <c r="G171" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6468,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>182</v>
-      </c>
-      <c r="G172" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6494,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>27</v>
-      </c>
-      <c r="G173" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6520,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>182</v>
-      </c>
-      <c r="G174" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6546,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>27</v>
-      </c>
-      <c r="G175" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6572,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>182</v>
-      </c>
-      <c r="G176" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6598,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>27</v>
-      </c>
-      <c r="G177" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6624,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>182</v>
-      </c>
-      <c r="G178" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6652,11 +6232,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6676,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>27</v>
-      </c>
-      <c r="G180" t="s">
-        <v>214</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6702,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>27</v>
-      </c>
-      <c r="G181" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6728,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>27</v>
-      </c>
-      <c r="G182" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6754,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>27</v>
-      </c>
-      <c r="G183" t="s">
-        <v>214</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6780,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>27</v>
-      </c>
-      <c r="G184" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6806,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>27</v>
-      </c>
-      <c r="G185" t="s">
-        <v>214</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6832,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>27</v>
-      </c>
-      <c r="G186" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6858,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>27</v>
-      </c>
-      <c r="G187" t="s">
-        <v>214</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6884,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>27</v>
-      </c>
-      <c r="G188" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6910,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>27</v>
-      </c>
-      <c r="G189" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6936,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>27</v>
-      </c>
-      <c r="G190" t="s">
-        <v>214</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6962,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>27</v>
-      </c>
-      <c r="G191" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6988,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>27</v>
-      </c>
-      <c r="G192" t="s">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
         <v>214</v>
-      </c>
-      <c r="H192" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7014,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>182</v>
-      </c>
-      <c r="G193" t="s">
-        <v>183</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7040,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>229</v>
-      </c>
-      <c r="G194" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7066,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>27</v>
-      </c>
-      <c r="G195" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7092,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>229</v>
-      </c>
-      <c r="G196" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7118,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>27</v>
-      </c>
-      <c r="G197" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7144,13 +6686,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>229</v>
-      </c>
-      <c r="G198" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7170,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>229</v>
-      </c>
-      <c r="G199" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7196,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>27</v>
-      </c>
-      <c r="G200" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7222,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>229</v>
-      </c>
-      <c r="G201" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7248,13 +6782,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>27</v>
-      </c>
-      <c r="G202" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7274,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>229</v>
-      </c>
-      <c r="G203" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7300,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>27</v>
-      </c>
-      <c r="G204" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7326,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>229</v>
-      </c>
-      <c r="G205" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7352,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>27</v>
-      </c>
-      <c r="G206" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7378,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>229</v>
-      </c>
-      <c r="G207" t="s">
+        <v>216</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
         <v>230</v>
-      </c>
-      <c r="H207" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7404,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>27</v>
-      </c>
-      <c r="G208" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7430,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>229</v>
-      </c>
-      <c r="G209" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7456,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>27</v>
-      </c>
-      <c r="G210" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7482,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>229</v>
-      </c>
-      <c r="G211" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7508,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>27</v>
-      </c>
-      <c r="G212" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7534,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>229</v>
-      </c>
-      <c r="G213" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7560,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>27</v>
-      </c>
-      <c r="G214" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7586,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>229</v>
-      </c>
-      <c r="G215" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7612,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>27</v>
-      </c>
-      <c r="G216" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7638,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>27</v>
-      </c>
-      <c r="G217" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7664,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>229</v>
-      </c>
-      <c r="G218" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7690,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>27</v>
-      </c>
-      <c r="G219" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7716,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>229</v>
-      </c>
-      <c r="G220" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7742,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>27</v>
-      </c>
-      <c r="G221" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7768,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>229</v>
-      </c>
-      <c r="G222" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7794,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>27</v>
-      </c>
-      <c r="G223" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7820,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>229</v>
-      </c>
-      <c r="G224" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7846,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>27</v>
-      </c>
-      <c r="G225" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7872,13 +7358,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>229</v>
-      </c>
-      <c r="G226" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7898,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>27</v>
-      </c>
-      <c r="G227" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7924,13 +7406,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>229</v>
-      </c>
-      <c r="G228" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7950,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>27</v>
-      </c>
-      <c r="G229" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7976,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>229</v>
-      </c>
-      <c r="G230" t="s">
+        <v>216</v>
+      </c>
+      <c r="G230" t="s"/>
+      <c r="H230" t="s">
         <v>230</v>
-      </c>
-      <c r="H230" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8002,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>229</v>
-      </c>
-      <c r="G231" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8028,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>27</v>
-      </c>
-      <c r="G232" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8054,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>229</v>
-      </c>
-      <c r="G233" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8080,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>27</v>
-      </c>
-      <c r="G234" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8106,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>229</v>
-      </c>
-      <c r="G235" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8132,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>27</v>
-      </c>
-      <c r="G236" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8158,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>229</v>
-      </c>
-      <c r="G237" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8184,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>27</v>
-      </c>
-      <c r="G238" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8210,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>229</v>
-      </c>
-      <c r="G239" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8236,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>27</v>
-      </c>
-      <c r="G240" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8262,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>229</v>
-      </c>
-      <c r="G241" t="s">
-        <v>230</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8290,11 +7744,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8314,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>279</v>
-      </c>
-      <c r="G243" t="s">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8340,13 +7790,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>27</v>
-      </c>
-      <c r="G244" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8366,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>279</v>
-      </c>
-      <c r="G245" t="s">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8392,13 +7838,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>27</v>
-      </c>
-      <c r="G246" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8418,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>279</v>
-      </c>
-      <c r="G247" t="s">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8444,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>27</v>
-      </c>
-      <c r="G248" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8470,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>279</v>
-      </c>
-      <c r="G249" t="s">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8496,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>27</v>
-      </c>
-      <c r="G250" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8522,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>279</v>
-      </c>
-      <c r="G251" t="s">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8548,13 +7982,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>27</v>
-      </c>
-      <c r="G252" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8574,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>279</v>
-      </c>
-      <c r="G253" t="s">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8600,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>27</v>
-      </c>
-      <c r="G254" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8626,13 +8054,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>279</v>
-      </c>
-      <c r="G255" t="s">
-        <v>280</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8652,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>27</v>
-      </c>
-      <c r="G256" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8678,13 +8102,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>279</v>
-      </c>
-      <c r="G257" t="s">
+        <v>265</v>
+      </c>
+      <c r="G257" t="s"/>
+      <c r="H257" t="s">
         <v>280</v>
-      </c>
-      <c r="H257" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8706,11 +8128,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8730,13 +8150,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>297</v>
-      </c>
-      <c r="G259" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8756,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>27</v>
-      </c>
-      <c r="G260" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8782,13 +8198,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>297</v>
-      </c>
-      <c r="G261" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8808,13 +8222,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>27</v>
-      </c>
-      <c r="G262" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8834,13 +8246,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>27</v>
-      </c>
-      <c r="G263" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8860,13 +8270,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>297</v>
-      </c>
-      <c r="G264" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8886,13 +8294,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>27</v>
-      </c>
-      <c r="G265" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8912,13 +8318,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>297</v>
-      </c>
-      <c r="G266" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8938,13 +8342,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>27</v>
-      </c>
-      <c r="G267" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8964,13 +8366,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>297</v>
-      </c>
-      <c r="G268" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8990,13 +8390,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>27</v>
-      </c>
-      <c r="G269" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9016,13 +8414,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>297</v>
-      </c>
-      <c r="G270" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9042,13 +8438,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>27</v>
-      </c>
-      <c r="G271" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9068,13 +8462,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>27</v>
-      </c>
-      <c r="G272" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9094,13 +8486,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>297</v>
-      </c>
-      <c r="G273" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9120,13 +8510,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>27</v>
-      </c>
-      <c r="G274" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9146,13 +8534,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>297</v>
-      </c>
-      <c r="G275" t="s">
+        <v>282</v>
+      </c>
+      <c r="G275" t="s"/>
+      <c r="H275" t="s">
         <v>298</v>
-      </c>
-      <c r="H275" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9172,13 +8558,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>27</v>
-      </c>
-      <c r="G276" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9198,13 +8582,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>27</v>
-      </c>
-      <c r="G277" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9224,13 +8606,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>27</v>
-      </c>
-      <c r="G278" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9250,13 +8630,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>297</v>
-      </c>
-      <c r="G279" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9276,13 +8654,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>27</v>
-      </c>
-      <c r="G280" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9302,13 +8678,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>297</v>
-      </c>
-      <c r="G281" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9328,13 +8702,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>27</v>
-      </c>
-      <c r="G282" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9354,13 +8726,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>297</v>
-      </c>
-      <c r="G283" t="s">
-        <v>298</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9382,11 +8752,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9406,13 +8774,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>323</v>
-      </c>
-      <c r="G285" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9432,13 +8798,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>27</v>
-      </c>
-      <c r="G286" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9458,13 +8822,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>323</v>
-      </c>
-      <c r="G287" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9484,13 +8846,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>27</v>
-      </c>
-      <c r="G288" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9510,13 +8870,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>323</v>
-      </c>
-      <c r="G289" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9536,13 +8894,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>27</v>
-      </c>
-      <c r="G290" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9562,13 +8918,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>323</v>
-      </c>
-      <c r="G291" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9588,13 +8942,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>27</v>
-      </c>
-      <c r="G292" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9614,13 +8966,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>323</v>
-      </c>
-      <c r="G293" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9640,13 +8990,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>27</v>
-      </c>
-      <c r="G294" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9666,13 +9014,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>323</v>
-      </c>
-      <c r="G295" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9692,13 +9038,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>27</v>
-      </c>
-      <c r="G296" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9718,13 +9062,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>323</v>
-      </c>
-      <c r="G297" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9744,13 +9086,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>27</v>
-      </c>
-      <c r="G298" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9770,13 +9110,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>323</v>
-      </c>
-      <c r="G299" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9796,13 +9134,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>27</v>
-      </c>
-      <c r="G300" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9822,13 +9158,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
+        <v>307</v>
+      </c>
+      <c r="G301" t="s"/>
+      <c r="H301" t="s">
         <v>323</v>
-      </c>
-      <c r="G301" t="s">
-        <v>324</v>
-      </c>
-      <c r="H301" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9848,13 +9182,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>27</v>
-      </c>
-      <c r="G302" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9874,13 +9206,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>323</v>
-      </c>
-      <c r="G303" t="s">
-        <v>324</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9902,11 +9232,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9926,13 +9254,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>344</v>
-      </c>
-      <c r="G305" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9952,13 +9278,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>27</v>
-      </c>
-      <c r="G306" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9978,13 +9302,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>344</v>
-      </c>
-      <c r="G307" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10004,13 +9326,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>27</v>
-      </c>
-      <c r="G308" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10030,13 +9350,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>344</v>
-      </c>
-      <c r="G309" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10056,13 +9374,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>27</v>
-      </c>
-      <c r="G310" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10082,13 +9398,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>344</v>
-      </c>
-      <c r="G311" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10108,13 +9422,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>27</v>
-      </c>
-      <c r="G312" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10134,13 +9446,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>344</v>
-      </c>
-      <c r="G313" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10160,13 +9470,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>27</v>
-      </c>
-      <c r="G314" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10186,13 +9494,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>344</v>
-      </c>
-      <c r="G315" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10212,13 +9518,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>27</v>
-      </c>
-      <c r="G316" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10238,13 +9542,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>344</v>
-      </c>
-      <c r="G317" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10264,13 +9566,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>27</v>
-      </c>
-      <c r="G318" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10290,13 +9590,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>344</v>
-      </c>
-      <c r="G319" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10316,13 +9614,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>27</v>
-      </c>
-      <c r="G320" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10342,13 +9638,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>344</v>
-      </c>
-      <c r="G321" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10368,13 +9662,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>27</v>
-      </c>
-      <c r="G322" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10394,13 +9686,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
+        <v>327</v>
+      </c>
+      <c r="G323" t="s"/>
+      <c r="H323" t="s">
         <v>344</v>
-      </c>
-      <c r="G323" t="s">
-        <v>345</v>
-      </c>
-      <c r="H323" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10420,13 +9710,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>344</v>
-      </c>
-      <c r="G324" t="s">
+        <v>327</v>
+      </c>
+      <c r="G324" t="s"/>
+      <c r="H324" t="s">
         <v>345</v>
-      </c>
-      <c r="H324" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10446,13 +9734,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>27</v>
-      </c>
-      <c r="G325" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10472,13 +9758,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>344</v>
-      </c>
-      <c r="G326" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10498,13 +9782,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>27</v>
-      </c>
-      <c r="G327" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10524,13 +9806,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>344</v>
-      </c>
-      <c r="G328" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10550,13 +9830,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>27</v>
-      </c>
-      <c r="G329" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10576,13 +9854,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>344</v>
-      </c>
-      <c r="G330" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10602,13 +9878,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>27</v>
-      </c>
-      <c r="G331" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10628,13 +9902,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>344</v>
-      </c>
-      <c r="G332" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10654,13 +9926,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>27</v>
-      </c>
-      <c r="G333" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10680,13 +9950,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>344</v>
-      </c>
-      <c r="G334" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10706,13 +9974,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>27</v>
-      </c>
-      <c r="G335" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10732,13 +9998,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>344</v>
-      </c>
-      <c r="G336" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10758,13 +10022,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>27</v>
-      </c>
-      <c r="G337" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10784,13 +10046,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>344</v>
-      </c>
-      <c r="G338" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10810,13 +10070,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>344</v>
-      </c>
-      <c r="G339" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10836,13 +10094,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>27</v>
-      </c>
-      <c r="G340" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10862,13 +10118,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>344</v>
-      </c>
-      <c r="G341" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10888,13 +10142,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>27</v>
-      </c>
-      <c r="G342" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10914,13 +10166,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>344</v>
-      </c>
-      <c r="G343" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10940,13 +10190,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>27</v>
-      </c>
-      <c r="G344" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10966,13 +10214,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>344</v>
-      </c>
-      <c r="G345" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10992,13 +10238,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>344</v>
-      </c>
-      <c r="G346" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11018,13 +10262,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>344</v>
-      </c>
-      <c r="G347" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11044,13 +10286,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>27</v>
-      </c>
-      <c r="G348" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11070,13 +10310,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>344</v>
-      </c>
-      <c r="G349" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11096,13 +10334,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>344</v>
-      </c>
-      <c r="G350" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11122,13 +10358,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>27</v>
-      </c>
-      <c r="G351" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11148,13 +10382,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>344</v>
-      </c>
-      <c r="G352" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11174,13 +10406,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>27</v>
-      </c>
-      <c r="G353" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11200,13 +10430,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>344</v>
-      </c>
-      <c r="G354" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11226,13 +10454,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>344</v>
-      </c>
-      <c r="G355" t="s">
-        <v>345</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11254,11 +10480,9 @@
       <c r="F356" t="s">
         <v>11</v>
       </c>
-      <c r="G356" t="s">
-        <v>12</v>
-      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11278,13 +10502,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>396</v>
-      </c>
-      <c r="G357" t="s">
-        <v>397</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11304,13 +10526,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>27</v>
-      </c>
-      <c r="G358" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11330,13 +10550,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>396</v>
-      </c>
-      <c r="G359" t="s">
-        <v>397</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11356,13 +10574,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>27</v>
-      </c>
-      <c r="G360" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11382,13 +10598,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>396</v>
-      </c>
-      <c r="G361" t="s">
-        <v>397</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11408,13 +10622,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>27</v>
-      </c>
-      <c r="G362" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11434,13 +10646,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>396</v>
-      </c>
-      <c r="G363" t="s">
-        <v>397</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11460,13 +10670,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>27</v>
-      </c>
-      <c r="G364" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11486,13 +10694,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>396</v>
-      </c>
-      <c r="G365" t="s">
-        <v>397</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11514,11 +10720,9 @@
       <c r="F366" t="s">
         <v>11</v>
       </c>
-      <c r="G366" t="s">
-        <v>12</v>
-      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11538,13 +10742,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>408</v>
-      </c>
-      <c r="G367" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11564,13 +10766,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>27</v>
-      </c>
-      <c r="G368" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11590,13 +10790,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>408</v>
-      </c>
-      <c r="G369" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11616,13 +10814,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>27</v>
-      </c>
-      <c r="G370" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11642,13 +10838,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>408</v>
-      </c>
-      <c r="G371" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11668,13 +10862,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>27</v>
-      </c>
-      <c r="G372" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11694,13 +10886,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>408</v>
-      </c>
-      <c r="G373" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11720,13 +10910,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>27</v>
-      </c>
-      <c r="G374" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11746,13 +10934,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>408</v>
-      </c>
-      <c r="G375" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11772,13 +10958,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>27</v>
-      </c>
-      <c r="G376" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11798,13 +10982,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>408</v>
-      </c>
-      <c r="G377" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11824,13 +11006,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>27</v>
-      </c>
-      <c r="G378" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11850,13 +11030,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>408</v>
-      </c>
-      <c r="G379" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11876,13 +11054,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>27</v>
-      </c>
-      <c r="G380" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11902,13 +11078,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>408</v>
-      </c>
-      <c r="G381" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11928,13 +11102,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>27</v>
-      </c>
-      <c r="G382" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11954,13 +11126,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>408</v>
-      </c>
-      <c r="G383" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11980,13 +11150,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>27</v>
-      </c>
-      <c r="G384" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12006,13 +11174,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>408</v>
-      </c>
-      <c r="G385" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12032,13 +11198,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>27</v>
-      </c>
-      <c r="G386" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12058,13 +11222,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>408</v>
-      </c>
-      <c r="G387" t="s">
+        <v>389</v>
+      </c>
+      <c r="G387" t="s"/>
+      <c r="H387" t="s">
         <v>409</v>
-      </c>
-      <c r="H387" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12084,13 +11246,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>27</v>
-      </c>
-      <c r="G388" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12110,13 +11270,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>408</v>
-      </c>
-      <c r="G389" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12136,13 +11294,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>27</v>
-      </c>
-      <c r="G390" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12162,13 +11318,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>408</v>
-      </c>
-      <c r="G391" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12188,13 +11342,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>27</v>
-      </c>
-      <c r="G392" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12214,13 +11366,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>408</v>
-      </c>
-      <c r="G393" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12240,13 +11390,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>408</v>
-      </c>
-      <c r="G394" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12266,13 +11414,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>27</v>
-      </c>
-      <c r="G395" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12292,13 +11438,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>408</v>
-      </c>
-      <c r="G396" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12318,13 +11462,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>27</v>
-      </c>
-      <c r="G397" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12344,13 +11486,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>408</v>
-      </c>
-      <c r="G398" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12370,13 +11510,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>27</v>
-      </c>
-      <c r="G399" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12396,13 +11534,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>408</v>
-      </c>
-      <c r="G400" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12422,13 +11558,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>27</v>
-      </c>
-      <c r="G401" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12448,13 +11582,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>408</v>
-      </c>
-      <c r="G402" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12474,13 +11606,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>408</v>
-      </c>
-      <c r="G403" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12500,13 +11630,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>27</v>
-      </c>
-      <c r="G404" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12526,13 +11654,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>27</v>
-      </c>
-      <c r="G405" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12552,13 +11678,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>408</v>
-      </c>
-      <c r="G406" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12578,13 +11702,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>27</v>
-      </c>
-      <c r="G407" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12604,13 +11726,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>408</v>
-      </c>
-      <c r="G408" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12630,13 +11750,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>27</v>
-      </c>
-      <c r="G409" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12656,13 +11774,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>408</v>
-      </c>
-      <c r="G410" t="s">
-        <v>409</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12684,11 +11800,9 @@
       <c r="F411" t="s">
         <v>11</v>
       </c>
-      <c r="G411" t="s">
-        <v>12</v>
-      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12708,13 +11822,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>27</v>
-      </c>
-      <c r="G412" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12736,11 +11848,9 @@
       <c r="F413" t="s">
         <v>11</v>
       </c>
-      <c r="G413" t="s">
-        <v>12</v>
-      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12760,13 +11870,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>27</v>
-      </c>
-      <c r="G414" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12788,11 +11896,9 @@
       <c r="F415" t="s">
         <v>11</v>
       </c>
-      <c r="G415" t="s">
-        <v>12</v>
-      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12812,13 +11918,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>27</v>
-      </c>
-      <c r="G416" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12840,11 +11944,9 @@
       <c r="F417" t="s">
         <v>11</v>
       </c>
-      <c r="G417" t="s">
-        <v>12</v>
-      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12864,13 +11966,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>27</v>
-      </c>
-      <c r="G418" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12890,13 +11990,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>27</v>
-      </c>
-      <c r="G419" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12918,11 +12016,9 @@
       <c r="F420" t="s">
         <v>11</v>
       </c>
-      <c r="G420" t="s">
-        <v>12</v>
-      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12942,13 +12038,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>27</v>
-      </c>
-      <c r="G421" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12970,11 +12064,9 @@
       <c r="F422" t="s">
         <v>11</v>
       </c>
-      <c r="G422" t="s">
-        <v>12</v>
-      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12994,13 +12086,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>27</v>
-      </c>
-      <c r="G423" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13022,11 +12112,9 @@
       <c r="F424" t="s">
         <v>11</v>
       </c>
-      <c r="G424" t="s">
-        <v>12</v>
-      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13046,13 +12134,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>27</v>
-      </c>
-      <c r="G425" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13074,11 +12160,9 @@
       <c r="F426" t="s">
         <v>11</v>
       </c>
-      <c r="G426" t="s">
-        <v>12</v>
-      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13098,13 +12182,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>27</v>
-      </c>
-      <c r="G427" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13126,11 +12208,9 @@
       <c r="F428" t="s">
         <v>11</v>
       </c>
-      <c r="G428" t="s">
-        <v>12</v>
-      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13150,13 +12230,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>27</v>
-      </c>
-      <c r="G429" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13178,11 +12256,9 @@
       <c r="F430" t="s">
         <v>11</v>
       </c>
-      <c r="G430" t="s">
-        <v>12</v>
-      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13202,13 +12278,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>27</v>
-      </c>
-      <c r="G431" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13230,11 +12304,9 @@
       <c r="F432" t="s">
         <v>11</v>
       </c>
-      <c r="G432" t="s">
-        <v>12</v>
-      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13254,13 +12326,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>27</v>
-      </c>
-      <c r="G433" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13282,11 +12352,9 @@
       <c r="F434" t="s">
         <v>11</v>
       </c>
-      <c r="G434" t="s">
-        <v>12</v>
-      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13308,11 +12376,9 @@
       <c r="F435" t="s">
         <v>11</v>
       </c>
-      <c r="G435" t="s">
-        <v>12</v>
-      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13332,13 +12398,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>27</v>
-      </c>
-      <c r="G436" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13360,11 +12424,9 @@
       <c r="F437" t="s">
         <v>11</v>
       </c>
-      <c r="G437" t="s">
-        <v>12</v>
-      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13384,13 +12446,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>27</v>
-      </c>
-      <c r="G438" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13412,11 +12472,9 @@
       <c r="F439" t="s">
         <v>11</v>
       </c>
-      <c r="G439" t="s">
-        <v>12</v>
-      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13436,13 +12494,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>27</v>
-      </c>
-      <c r="G440" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13464,11 +12520,9 @@
       <c r="F441" t="s">
         <v>11</v>
       </c>
-      <c r="G441" t="s">
-        <v>12</v>
-      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13488,13 +12542,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>27</v>
-      </c>
-      <c r="G442" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13516,11 +12568,9 @@
       <c r="F443" t="s">
         <v>11</v>
       </c>
-      <c r="G443" t="s">
-        <v>12</v>
-      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13540,13 +12590,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>27</v>
-      </c>
-      <c r="G444" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13568,11 +12616,9 @@
       <c r="F445" t="s">
         <v>11</v>
       </c>
-      <c r="G445" t="s">
-        <v>12</v>
-      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13592,13 +12638,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>27</v>
-      </c>
-      <c r="G446" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13618,13 +12662,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>27</v>
-      </c>
-      <c r="G447" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13646,11 +12688,9 @@
       <c r="F448" t="s">
         <v>11</v>
       </c>
-      <c r="G448" t="s">
-        <v>12</v>
-      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13670,13 +12710,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>27</v>
-      </c>
-      <c r="G449" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13698,11 +12736,9 @@
       <c r="F450" t="s">
         <v>11</v>
       </c>
-      <c r="G450" t="s">
-        <v>12</v>
-      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13722,13 +12758,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>27</v>
-      </c>
-      <c r="G451" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13750,11 +12784,9 @@
       <c r="F452" t="s">
         <v>11</v>
       </c>
-      <c r="G452" t="s">
-        <v>12</v>
-      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13774,13 +12806,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>27</v>
-      </c>
-      <c r="G453" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13802,11 +12832,9 @@
       <c r="F454" t="s">
         <v>11</v>
       </c>
-      <c r="G454" t="s">
-        <v>12</v>
-      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13826,13 +12854,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>27</v>
-      </c>
-      <c r="G455" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13854,11 +12880,9 @@
       <c r="F456" t="s">
         <v>11</v>
       </c>
-      <c r="G456" t="s">
-        <v>12</v>
-      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13878,13 +12902,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>27</v>
-      </c>
-      <c r="G457" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13906,11 +12928,9 @@
       <c r="F458" t="s">
         <v>11</v>
       </c>
-      <c r="G458" t="s">
-        <v>12</v>
-      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13930,13 +12950,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>27</v>
-      </c>
-      <c r="G459" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13958,11 +12976,9 @@
       <c r="F460" t="s">
         <v>11</v>
       </c>
-      <c r="G460" t="s">
-        <v>12</v>
-      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13982,13 +12998,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>27</v>
-      </c>
-      <c r="G461" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14010,11 +13024,9 @@
       <c r="F462" t="s">
         <v>11</v>
       </c>
-      <c r="G462" t="s">
-        <v>12</v>
-      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14034,13 +13046,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>27</v>
-      </c>
-      <c r="G463" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14062,11 +13072,9 @@
       <c r="F464" t="s">
         <v>11</v>
       </c>
-      <c r="G464" t="s">
-        <v>12</v>
-      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14086,13 +13094,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>27</v>
-      </c>
-      <c r="G465" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14114,11 +13120,9 @@
       <c r="F466" t="s">
         <v>11</v>
       </c>
-      <c r="G466" t="s">
-        <v>12</v>
-      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14138,13 +13142,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>508</v>
-      </c>
-      <c r="G467" t="s">
-        <v>509</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14164,13 +13166,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>27</v>
-      </c>
-      <c r="G468" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14190,13 +13190,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>508</v>
-      </c>
-      <c r="G469" t="s">
-        <v>509</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14216,13 +13214,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>27</v>
-      </c>
-      <c r="G470" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14242,13 +13238,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>508</v>
-      </c>
-      <c r="G471" t="s">
-        <v>509</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14268,13 +13262,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>27</v>
-      </c>
-      <c r="G472" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14294,13 +13286,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>508</v>
-      </c>
-      <c r="G473" t="s">
-        <v>509</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14320,13 +13310,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>27</v>
-      </c>
-      <c r="G474" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14346,13 +13334,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>508</v>
-      </c>
-      <c r="G475" t="s">
-        <v>509</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14374,11 +13360,9 @@
       <c r="F476" t="s">
         <v>11</v>
       </c>
-      <c r="G476" t="s">
-        <v>12</v>
-      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14398,13 +13382,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>22</v>
-      </c>
-      <c r="G477" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14426,11 +13408,9 @@
       <c r="F478" t="s">
         <v>11</v>
       </c>
-      <c r="G478" t="s">
-        <v>12</v>
-      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14450,13 +13430,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>18</v>
-      </c>
-      <c r="G479" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14476,13 +13454,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>27</v>
-      </c>
-      <c r="G480" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14502,13 +13478,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>18</v>
-      </c>
-      <c r="G481" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14528,13 +13502,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>27</v>
-      </c>
-      <c r="G482" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14554,13 +13526,11 @@
         <v>10</v>
       </c>
       <c r="F483" t="s">
-        <v>18</v>
-      </c>
-      <c r="G483" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14580,13 +13550,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>27</v>
-      </c>
-      <c r="G484" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14606,13 +13574,11 @@
         <v>10</v>
       </c>
       <c r="F485" t="s">
-        <v>27</v>
-      </c>
-      <c r="G485" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14632,13 +13598,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>18</v>
-      </c>
-      <c r="G486" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14658,13 +13622,11 @@
         <v>10</v>
       </c>
       <c r="F487" t="s">
-        <v>27</v>
-      </c>
-      <c r="G487" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14684,13 +13646,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>18</v>
-      </c>
-      <c r="G488" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14710,13 +13670,11 @@
         <v>10</v>
       </c>
       <c r="F489" t="s">
-        <v>27</v>
-      </c>
-      <c r="G489" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14736,13 +13694,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>18</v>
-      </c>
-      <c r="G490" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14762,13 +13718,11 @@
         <v>10</v>
       </c>
       <c r="F491" t="s">
-        <v>27</v>
-      </c>
-      <c r="G491" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14788,13 +13742,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>18</v>
-      </c>
-      <c r="G492" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14814,13 +13766,11 @@
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>27</v>
-      </c>
-      <c r="G493" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14840,13 +13790,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>27</v>
-      </c>
-      <c r="G494" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14866,13 +13814,11 @@
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>27</v>
-      </c>
-      <c r="G495" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14894,11 +13840,9 @@
       <c r="F496" t="s">
         <v>11</v>
       </c>
-      <c r="G496" t="s">
-        <v>12</v>
-      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14918,13 +13862,11 @@
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>27</v>
-      </c>
-      <c r="G497" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -14946,11 +13888,9 @@
       <c r="F498" t="s">
         <v>11</v>
       </c>
-      <c r="G498" t="s">
-        <v>12</v>
-      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14970,13 +13910,11 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>27</v>
-      </c>
-      <c r="G499" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -14998,11 +13936,9 @@
       <c r="F500" t="s">
         <v>11</v>
       </c>
-      <c r="G500" t="s">
-        <v>12</v>
-      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15022,13 +13958,11 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>27</v>
-      </c>
-      <c r="G501" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15050,11 +13984,9 @@
       <c r="F502" t="s">
         <v>11</v>
       </c>
-      <c r="G502" t="s">
-        <v>12</v>
-      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
